--- a/biology/Médecine/Angelo_Zulatti/Angelo_Zulatti.xlsx
+++ b/biology/Médecine/Angelo_Zulatti/Angelo_Zulatti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Angelo Zulatti (né en 1732 à Lixouri (Lissouri), Céphalonie et mort en novembre 1798) est un médecin italien du XVIIIe siècle.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Angelo Zulatti est reçu docteur en médecine en 1750 à Padoue, après avoir fait de bonnes études à l'université de Padoue.
 Il se fixe alors à Bologne], où il obtient bientôt de nombreux succès.
@@ -548,7 +562,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Outre les ouvrages que nous avons cités, on lui doit encore une remarquable Description d'un tétanos observé à Bologne en 1751, publiée à Venise en 1762 ; une lettre en latin sur un singulier cas de gravelle, imprimée dans le Journal médical d'Orteschi, t. 6 (1767), et de nombreuses observations sur l'inoculation, imprimées à Venise, en 1768, sous le titre : Notizie dell'innesti di vaiuolo fatti in Cefalonia, qu'on retrouve dans le journal d'Orteschi (t. 6, p. 267).
 </t>
@@ -579,7 +595,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">« Angelo Zulatti », dans Louis-Gabriel Michaud, Biographie universelle ancienne et moderne : histoire par ordre alphabétique de la vie publique et privée de tous les hommes avec la collaboration de plus de 300 savants et littérateurs français ou étrangers, 2e édition, 1843-1865 [détail de l’édition]
 (it) Angelo Zulatti sur le site Opac.bncf.firenze.sbn.it
